--- a/characterCardLevel_data.xlsx
+++ b/characterCardLevel_data.xlsx
@@ -21,22 +21,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quentity_tier_5</x:t>
-  </x:si>
-  <x:si>
     <x:t>quentity_tier_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quentity_tier_2</x:t>
   </x:si>
   <x:si>
     <x:t>quentity_tier_3</x:t>
   </x:si>
   <x:si>
     <x:t>quentity_tier_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quentity_tier_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quentity_tier_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
   </x:si>
   <x:si>
     <x:t>level</x:t>
@@ -482,7 +482,7 @@
   <x:dimension ref="A1:F12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C13" activeCellId="0" sqref="C13:C13"/>
+      <x:selection activeCell="D16" activeCellId="0" sqref="D16:D16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -499,39 +499,39 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -735,7 +735,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>